--- a/iphone adapter.xlsx
+++ b/iphone adapter.xlsx
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -505,8 +505,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>

--- a/iphone adapter.xlsx
+++ b/iphone adapter.xlsx
@@ -92,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,8 +120,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -452,7 +459,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -504,6 +511,9 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">

--- a/iphone adapter.xlsx
+++ b/iphone adapter.xlsx
@@ -101,7 +101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF000090"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +459,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
